--- a/biology/Zoologie/Enidae/Enidae.xlsx
+++ b/biology/Zoologie/Enidae/Enidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enidae sont une famille de mollusques gastéropodes stylommatophores terrestres, appelés bulimes en français. 
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur coquille, de taille moyenne (8 à 20 mm de hauteur) est allongée, généralement conique ou subcylindrique, à l'apex émoussé, et de couleur plutôt brune et lisse. L'ouverture, dont le péristome est épaissi, peut contenir un certain nombre de dents. Certaines espèces (Ena montana, Merdigera obscura) se camouflent en collant de la terre et des débris sur leur coquille avec du mucus, passant ainsi inaperçues[1].  
-La plupart des espèces sont dextres, mais quelques espèces sont senestres: en Europe continentale de l'Ouest Jaminia quadridens (Europe de l'Ouest, Balkans) est la seule espèce senestre, mais ailleurs, on peut trouver Jaminia loewii (Grèce), Chondrus tournefortianus (Bulgarie à Arménie et Iran), Euchondrus chondriformis (Chypre, Turquie, Israël), Euchondrus saulcyi (Israël, Syrie), Imparietula armeniaca (Turquie), Imparietula schelkovnikovi (Azerbaïdjan), Mastus carneolus (Roumanie, Samos, Turquie), Mastus venerabilis (Roumanie), Mirus hartmanni (Chine), Napaeinus tabidus (Canaries, Samos, Turquie), Napaeus alboreflexus (Chine), Pseudobuliminus siamensis (Est de la Thaïlande), Pseudochondrula seductilis (Balkans, Turquie) et Thoanteus gibber (Crimée) notamment[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur coquille, de taille moyenne (8 à 20 mm de hauteur) est allongée, généralement conique ou subcylindrique, à l'apex émoussé, et de couleur plutôt brune et lisse. L'ouverture, dont le péristome est épaissi, peut contenir un certain nombre de dents. Certaines espèces (Ena montana, Merdigera obscura) se camouflent en collant de la terre et des débris sur leur coquille avec du mucus, passant ainsi inaperçues.  
+La plupart des espèces sont dextres, mais quelques espèces sont senestres: en Europe continentale de l'Ouest Jaminia quadridens (Europe de l'Ouest, Balkans) est la seule espèce senestre, mais ailleurs, on peut trouver Jaminia loewii (Grèce), Chondrus tournefortianus (Bulgarie à Arménie et Iran), Euchondrus chondriformis (Chypre, Turquie, Israël), Euchondrus saulcyi (Israël, Syrie), Imparietula armeniaca (Turquie), Imparietula schelkovnikovi (Azerbaïdjan), Mastus carneolus (Roumanie, Samos, Turquie), Mastus venerabilis (Roumanie), Mirus hartmanni (Chine), Napaeinus tabidus (Canaries, Samos, Turquie), Napaeus alboreflexus (Chine), Pseudobuliminus siamensis (Est de la Thaïlande), Pseudochondrula seductilis (Balkans, Turquie) et Thoanteus gibber (Crimée) notamment.  
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition et diversité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette famille présente est presque exclusivement dans le paléarctique, des Açores et des Canaries à l'Ouest, au Japon à l'Est. Quelques espèces ont été trouvées en dehors de cet espace, en Indonésie, en Nouvelle-Calédonie et sur l'île d'Aldabra. Le centre de diversité de la famille se trouve dans les Balkans et le Proche-Orient. En 2017, cette famille comprend 452 espèces, réparties en 65 genres, dont un genre fossile[3]. 
-En Europe occidentale (notamment France et Suisse), seules cinq espèces sont présentes, avec une distribution relativement large[1]:  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette famille présente est presque exclusivement dans le paléarctique, des Açores et des Canaries à l'Ouest, au Japon à l'Est. Quelques espèces ont été trouvées en dehors de cet espace, en Indonésie, en Nouvelle-Calédonie et sur l'île d'Aldabra. Le centre de diversité de la famille se trouve dans les Balkans et le Proche-Orient. En 2017, cette famille comprend 452 espèces, réparties en 65 genres, dont un genre fossile. 
+En Europe occidentale (notamment France et Suisse), seules cinq espèces sont présentes, avec une distribution relativement large:  
 Chondrula tridens Müller 1774, le Bulime à trois dents
 Ena montana Draparnaud 1801, le Bulime montagnard
 Jaminia quadridens Müller 1774, le Bulime à quatre dents, ou Bulime inverse
